--- a/ValidFiles/Valid DMS(space) format with 2 lables and 5 row data.xlsx
+++ b/ValidFiles/Valid DMS(space) format with 2 lables and 5 row data.xlsx
@@ -27,12 +27,6 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>40° 51' 59.01" S</t>
-  </si>
-  <si>
-    <t>124° 4' 58" W</t>
-  </si>
-  <si>
     <t>Continent</t>
   </si>
   <si>
@@ -57,25 +51,31 @@
     <t>Zmbay</t>
   </si>
   <si>
-    <t>20° 41' 49.01" S</t>
-  </si>
-  <si>
-    <t>14° 44' 48" W</t>
-  </si>
-  <si>
-    <t>155° 4' 5" W</t>
-  </si>
-  <si>
-    <t>179° 03' 01" W</t>
-  </si>
-  <si>
-    <t>24°64' 58" W</t>
-  </si>
-  <si>
-    <t>0° 51' 59.01" S</t>
-  </si>
-  <si>
-    <t>4°51' 59.01" S</t>
+    <t>20° 41' 49.01" N</t>
+  </si>
+  <si>
+    <t>40° 51' 59.01" N</t>
+  </si>
+  <si>
+    <t>124° 4' 58" E</t>
+  </si>
+  <si>
+    <t>14° 44' 48" E</t>
+  </si>
+  <si>
+    <t>155° 4' 5" E</t>
+  </si>
+  <si>
+    <t>0° 51' 59.01" N</t>
+  </si>
+  <si>
+    <t>15° 4' 5" E</t>
+  </si>
+  <si>
+    <t>55° 4' 5" E</t>
+  </si>
+  <si>
+    <t>10° 51' 59.01" N</t>
   </si>
 </sst>
 </file>
@@ -103,7 +103,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -158,6 +164,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,19 +476,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,69 +498,77 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -552,10 +576,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
